--- a/vep autonomos.xlsx
+++ b/vep autonomos.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.22\Estudio\Planillas estudio\Bots Estudio\Generar_Vep\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35803194-AB68-40AB-B05E-144229443981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Listado" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Listado!$A$1:$S$23</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +34,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>Nro</t>
   </si>
@@ -157,7 +165,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -219,19 +227,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -247,7 +253,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Control"/>
@@ -1259,14 +1265,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1374,23 +1380,23 @@
       <c r="F2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="4">
         <v>2023</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="4">
         <v>6</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="4">
         <v>302</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="7">
-        <v>2364599696</v>
+      <c r="K2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="4">
+        <v>2364444444</v>
       </c>
       <c r="M2" s="4">
         <f>+J2</f>
@@ -1440,24 +1446,24 @@
         <v>35</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="7">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="4">
         <v>2023</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="4">
         <v>4</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="4">
         <v>593</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="7">
+        <v>33</v>
+      </c>
+      <c r="L3" s="4">
         <v>0</v>
       </c>
       <c r="M3" s="4"/>
@@ -1471,7 +1477,7 @@
       </c>
       <c r="P3" s="2" t="str">
         <f t="shared" ref="P3:P5" si="4">CONCATENATE("Estimado ",B3,", hemos generado su VEP de ",F3," por un monto de $",J3)</f>
-        <v>Estimado NOMBRE CONTRIBUYENTE, hemos generado su VEP de AUTONOMO por un monto de $593</v>
+        <v>Estimado NOMBRE CONTRIBUYENTE, hemos generado su VEP de GANANCIAS por un monto de $593</v>
       </c>
       <c r="Q3" s="4">
         <f>IF(C3=C2,1,0)</f>
@@ -1504,17 +1510,12 @@
       <c r="E4" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="F4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="7">
+      <c r="L4" s="4">
         <v>0</v>
       </c>
       <c r="M4" s="4"/>
@@ -1528,7 +1529,7 @@
       </c>
       <c r="P4" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>Estimado NOMBRE CONTRIBUYENTE, hemos generado su VEP de AUTONOMO por un monto de $</v>
+        <v>Estimado NOMBRE CONTRIBUYENTE, hemos generado su VEP de  por un monto de $</v>
       </c>
       <c r="Q4" s="4">
         <f>IF(C4=C3,1,0)</f>
@@ -1562,24 +1563,24 @@
         <v>35</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="7">
+        <v>14</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="4">
         <v>2023</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="4">
         <v>2</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="4">
         <v>659</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="4">
         <v>0</v>
       </c>
       <c r="M5" s="4"/>
@@ -1593,7 +1594,7 @@
       </c>
       <c r="P5" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>Estimado NOMBRE CONTRIBUYENTE, hemos generado su VEP de AUTONOMO por un monto de $659</v>
+        <v>Estimado NOMBRE CONTRIBUYENTE, hemos generado su VEP de GANANCIAS por un monto de $659</v>
       </c>
       <c r="Q5" s="4">
         <f>IF(C5=C4,1,0)</f>
@@ -1626,15 +1627,11 @@
       <c r="E6" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
       <c r="K6" s="2"/>
       <c r="L6" s="5" t="str">
         <f>IFERROR(VLOOKUP(D6&amp;" - "&amp;P6,[1]Control!$D:$E,2,0),"")</f>
@@ -1651,7 +1648,7 @@
       </c>
       <c r="P6" s="2" t="str">
         <f t="shared" ref="P6:P23" si="10">CONCATENATE("Estimado ",B6,", hemos generado su VEP de ",F6)</f>
-        <v>Estimado NOMBRE CONTRIBUYENTE, hemos generado su VEP de AUTONOMO</v>
+        <v xml:space="preserve">Estimado NOMBRE CONTRIBUYENTE, hemos generado su VEP de </v>
       </c>
       <c r="Q6" s="4">
         <f t="shared" ref="Q6:Q23" si="11">IF(C6=C5,1,0)</f>
@@ -1659,40 +1656,23 @@
       </c>
       <c r="R6" s="4">
         <f t="shared" ref="R6:R23" si="12">IF(C6=C7,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" s="4">
         <f t="shared" ref="S6:S23" si="13">SUM(Q6:R6)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="str">
-        <f t="shared" ref="A7:A23" si="14">RIGHT(D7,1)</f>
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7">
-        <v>20000000000</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" ref="D7:D23" si="15">TEXT(C7,"00-00000000-0")</f>
-        <v>20-00000000-0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
       <c r="K7" s="2"/>
       <c r="L7" s="5" t="str">
         <f>IFERROR(VLOOKUP(D7&amp;" - "&amp;P7,[1]Control!$D:$E,2,0),"")</f>
@@ -1701,7 +1681,7 @@
       <c r="M7" s="4"/>
       <c r="N7" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>x</v>
+        <v>ü</v>
       </c>
       <c r="O7" s="4">
         <f t="shared" si="9"/>
@@ -1709,11 +1689,11 @@
       </c>
       <c r="P7" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>Estimado NOMBRE CONTRIBUYENTE, hemos generado su VEP de AUTONOMO</v>
+        <v xml:space="preserve">Estimado , hemos generado su VEP de </v>
       </c>
       <c r="Q7" s="4">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" s="4">
         <f t="shared" si="12"/>
@@ -1721,36 +1701,19 @@
       </c>
       <c r="S7" s="4">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8">
-        <v>20000000000</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="15"/>
-        <v>20-00000000-0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
       <c r="K8" s="2"/>
       <c r="L8" s="5" t="str">
         <f>IFERROR(VLOOKUP(D8&amp;" - "&amp;P8,[1]Control!$D:$E,2,0),"")</f>
@@ -1759,7 +1722,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>x</v>
+        <v>ü</v>
       </c>
       <c r="O8" s="4">
         <f t="shared" si="9"/>
@@ -1767,7 +1730,7 @@
       </c>
       <c r="P8" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>Estimado NOMBRE CONTRIBUYENTE, hemos generado su VEP de AUTONOMO</v>
+        <v xml:space="preserve">Estimado , hemos generado su VEP de </v>
       </c>
       <c r="Q8" s="4">
         <f t="shared" si="11"/>
@@ -1784,31 +1747,14 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9">
-        <v>20000000000</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" si="15"/>
-        <v>20-00000000-0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
       <c r="K9" s="2"/>
       <c r="L9" s="5" t="str">
         <f>IFERROR(VLOOKUP(D9&amp;" - "&amp;P9,[1]Control!$D:$E,2,0),"")</f>
@@ -1817,7 +1763,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>x</v>
+        <v>ü</v>
       </c>
       <c r="O9" s="4">
         <f t="shared" si="9"/>
@@ -1825,7 +1771,7 @@
       </c>
       <c r="P9" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>Estimado NOMBRE CONTRIBUYENTE, hemos generado su VEP de AUTONOMO</v>
+        <v xml:space="preserve">Estimado , hemos generado su VEP de </v>
       </c>
       <c r="Q9" s="4">
         <f t="shared" si="11"/>
@@ -1842,31 +1788,14 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10">
-        <v>20000000000</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" si="15"/>
-        <v>20-00000000-0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
       <c r="K10" s="2"/>
       <c r="L10" s="5" t="str">
         <f>IFERROR(VLOOKUP(D10&amp;" - "&amp;P10,[1]Control!$D:$E,2,0),"")</f>
@@ -1875,7 +1804,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>x</v>
+        <v>ü</v>
       </c>
       <c r="O10" s="4">
         <f t="shared" si="9"/>
@@ -1883,7 +1812,7 @@
       </c>
       <c r="P10" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>Estimado NOMBRE CONTRIBUYENTE, hemos generado su VEP de AUTONOMO</v>
+        <v xml:space="preserve">Estimado , hemos generado su VEP de </v>
       </c>
       <c r="Q10" s="4">
         <f t="shared" si="11"/>
@@ -1900,31 +1829,14 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11">
-        <v>20000000000</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" si="15"/>
-        <v>20-00000000-0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
       <c r="K11" s="2"/>
       <c r="L11" s="5" t="str">
         <f>IFERROR(VLOOKUP(D11&amp;" - "&amp;P11,[1]Control!$D:$E,2,0),"")</f>
@@ -1933,7 +1845,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>x</v>
+        <v>ü</v>
       </c>
       <c r="O11" s="4">
         <f t="shared" si="9"/>
@@ -1941,7 +1853,7 @@
       </c>
       <c r="P11" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>Estimado NOMBRE CONTRIBUYENTE, hemos generado su VEP de AUTONOMO</v>
+        <v xml:space="preserve">Estimado , hemos generado su VEP de </v>
       </c>
       <c r="Q11" s="4">
         <f t="shared" si="11"/>
@@ -1958,31 +1870,14 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12">
-        <v>20000000000</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="15"/>
-        <v>20-00000000-0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
       <c r="K12" s="2"/>
       <c r="L12" s="5" t="str">
         <f>IFERROR(VLOOKUP(D12&amp;" - "&amp;P12,[1]Control!$D:$E,2,0),"")</f>
@@ -1991,7 +1886,7 @@
       <c r="M12" s="4"/>
       <c r="N12" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>x</v>
+        <v>ü</v>
       </c>
       <c r="O12" s="4">
         <f t="shared" si="9"/>
@@ -1999,7 +1894,7 @@
       </c>
       <c r="P12" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>Estimado NOMBRE CONTRIBUYENTE, hemos generado su VEP de AUTONOMO</v>
+        <v xml:space="preserve">Estimado , hemos generado su VEP de </v>
       </c>
       <c r="Q12" s="4">
         <f t="shared" si="11"/>
@@ -2016,31 +1911,14 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13">
-        <v>20000000000</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="15"/>
-        <v>20-00000000-0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
       <c r="K13" s="2"/>
       <c r="L13" s="5" t="str">
         <f>IFERROR(VLOOKUP(D13&amp;" - "&amp;P13,[1]Control!$D:$E,2,0),"")</f>
@@ -2049,7 +1927,7 @@
       <c r="M13" s="4"/>
       <c r="N13" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>x</v>
+        <v>ü</v>
       </c>
       <c r="O13" s="4">
         <f t="shared" si="9"/>
@@ -2057,7 +1935,7 @@
       </c>
       <c r="P13" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>Estimado NOMBRE CONTRIBUYENTE, hemos generado su VEP de AUTONOMO</v>
+        <v xml:space="preserve">Estimado , hemos generado su VEP de </v>
       </c>
       <c r="Q13" s="4">
         <f t="shared" si="11"/>
@@ -2074,31 +1952,14 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14">
-        <v>20000000000</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" si="15"/>
-        <v>20-00000000-0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
       <c r="K14" s="2"/>
       <c r="L14" s="5" t="str">
         <f>IFERROR(VLOOKUP(D14&amp;" - "&amp;P14,[1]Control!$D:$E,2,0),"")</f>
@@ -2107,7 +1968,7 @@
       <c r="M14" s="4"/>
       <c r="N14" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>x</v>
+        <v>ü</v>
       </c>
       <c r="O14" s="4">
         <f t="shared" si="9"/>
@@ -2115,7 +1976,7 @@
       </c>
       <c r="P14" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>Estimado NOMBRE CONTRIBUYENTE, hemos generado su VEP de AUTONOMO</v>
+        <v xml:space="preserve">Estimado , hemos generado su VEP de </v>
       </c>
       <c r="Q14" s="4">
         <f t="shared" si="11"/>
@@ -2132,31 +1993,14 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15">
-        <v>20000000000</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="15"/>
-        <v>20-00000000-0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
       <c r="K15" s="2"/>
       <c r="L15" s="5" t="str">
         <f>IFERROR(VLOOKUP(D15&amp;" - "&amp;P15,[1]Control!$D:$E,2,0),"")</f>
@@ -2165,7 +2009,7 @@
       <c r="M15" s="4"/>
       <c r="N15" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>x</v>
+        <v>ü</v>
       </c>
       <c r="O15" s="4">
         <f t="shared" si="9"/>
@@ -2173,7 +2017,7 @@
       </c>
       <c r="P15" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>Estimado NOMBRE CONTRIBUYENTE, hemos generado su VEP de AUTONOMO</v>
+        <v xml:space="preserve">Estimado , hemos generado su VEP de </v>
       </c>
       <c r="Q15" s="4">
         <f t="shared" si="11"/>
@@ -2190,31 +2034,14 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16">
-        <v>20000000000</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="15"/>
-        <v>20-00000000-0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
       <c r="K16" s="2"/>
       <c r="L16" s="5" t="str">
         <f>IFERROR(VLOOKUP(D16&amp;" - "&amp;P16,[1]Control!$D:$E,2,0),"")</f>
@@ -2223,7 +2050,7 @@
       <c r="M16" s="4"/>
       <c r="N16" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>x</v>
+        <v>ü</v>
       </c>
       <c r="O16" s="4">
         <f t="shared" si="9"/>
@@ -2231,7 +2058,7 @@
       </c>
       <c r="P16" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>Estimado NOMBRE CONTRIBUYENTE, hemos generado su VEP de AUTONOMO</v>
+        <v xml:space="preserve">Estimado , hemos generado su VEP de </v>
       </c>
       <c r="Q16" s="4">
         <f t="shared" si="11"/>
@@ -2248,31 +2075,14 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17">
-        <v>20000000000</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" si="15"/>
-        <v>20-00000000-0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
       <c r="K17" s="2"/>
       <c r="L17" s="5" t="str">
         <f>IFERROR(VLOOKUP(D17&amp;" - "&amp;P17,[1]Control!$D:$E,2,0),"")</f>
@@ -2281,7 +2091,7 @@
       <c r="M17" s="4"/>
       <c r="N17" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>x</v>
+        <v>ü</v>
       </c>
       <c r="O17" s="4">
         <f t="shared" si="9"/>
@@ -2289,7 +2099,7 @@
       </c>
       <c r="P17" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>Estimado NOMBRE CONTRIBUYENTE, hemos generado su VEP de AUTONOMO</v>
+        <v xml:space="preserve">Estimado , hemos generado su VEP de </v>
       </c>
       <c r="Q17" s="4">
         <f t="shared" si="11"/>
@@ -2306,31 +2116,14 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18">
-        <v>20000000000</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" si="15"/>
-        <v>20-00000000-0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
       <c r="K18" s="2"/>
       <c r="L18" s="5" t="str">
         <f>IFERROR(VLOOKUP(D18&amp;" - "&amp;P18,[1]Control!$D:$E,2,0),"")</f>
@@ -2339,7 +2132,7 @@
       <c r="M18" s="4"/>
       <c r="N18" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>x</v>
+        <v>ü</v>
       </c>
       <c r="O18" s="4">
         <f t="shared" si="9"/>
@@ -2347,7 +2140,7 @@
       </c>
       <c r="P18" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>Estimado NOMBRE CONTRIBUYENTE, hemos generado su VEP de AUTONOMO</v>
+        <v xml:space="preserve">Estimado , hemos generado su VEP de </v>
       </c>
       <c r="Q18" s="4">
         <f t="shared" si="11"/>
@@ -2364,31 +2157,14 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19">
-        <v>20000000000</v>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" si="15"/>
-        <v>20-00000000-0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
       <c r="K19" s="2"/>
       <c r="L19" s="5" t="str">
         <f>IFERROR(VLOOKUP(D19&amp;" - "&amp;P19,[1]Control!$D:$E,2,0),"")</f>
@@ -2397,7 +2173,7 @@
       <c r="M19" s="4"/>
       <c r="N19" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>x</v>
+        <v>ü</v>
       </c>
       <c r="O19" s="4">
         <f t="shared" si="9"/>
@@ -2405,7 +2181,7 @@
       </c>
       <c r="P19" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>Estimado NOMBRE CONTRIBUYENTE, hemos generado su VEP de AUTONOMO</v>
+        <v xml:space="preserve">Estimado , hemos generado su VEP de </v>
       </c>
       <c r="Q19" s="4">
         <f t="shared" si="11"/>
@@ -2422,31 +2198,14 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20">
-        <v>20000000000</v>
-      </c>
-      <c r="D20" t="str">
-        <f t="shared" si="15"/>
-        <v>20-00000000-0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
       <c r="K20" s="2"/>
       <c r="L20" s="5" t="str">
         <f>IFERROR(VLOOKUP(D20&amp;" - "&amp;P20,[1]Control!$D:$E,2,0),"")</f>
@@ -2455,7 +2214,7 @@
       <c r="M20" s="4"/>
       <c r="N20" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>x</v>
+        <v>ü</v>
       </c>
       <c r="O20" s="4">
         <f t="shared" si="9"/>
@@ -2463,7 +2222,7 @@
       </c>
       <c r="P20" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>Estimado NOMBRE CONTRIBUYENTE, hemos generado su VEP de AUTONOMO</v>
+        <v xml:space="preserve">Estimado , hemos generado su VEP de </v>
       </c>
       <c r="Q20" s="4">
         <f t="shared" si="11"/>
@@ -2480,31 +2239,14 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21">
-        <v>20000000000</v>
-      </c>
-      <c r="D21" t="str">
-        <f t="shared" si="15"/>
-        <v>20-00000000-0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
       <c r="K21" s="2"/>
       <c r="L21" s="5" t="str">
         <f>IFERROR(VLOOKUP(D21&amp;" - "&amp;P21,[1]Control!$D:$E,2,0),"")</f>
@@ -2513,7 +2255,7 @@
       <c r="M21" s="4"/>
       <c r="N21" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>x</v>
+        <v>ü</v>
       </c>
       <c r="O21" s="4">
         <f t="shared" si="9"/>
@@ -2521,7 +2263,7 @@
       </c>
       <c r="P21" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>Estimado NOMBRE CONTRIBUYENTE, hemos generado su VEP de AUTONOMO</v>
+        <v xml:space="preserve">Estimado , hemos generado su VEP de </v>
       </c>
       <c r="Q21" s="4">
         <f t="shared" si="11"/>
@@ -2538,31 +2280,14 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="B22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22">
-        <v>20000000000</v>
-      </c>
-      <c r="D22" t="str">
-        <f t="shared" si="15"/>
-        <v>20-00000000-0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
       <c r="K22" s="2"/>
       <c r="L22" s="5" t="str">
         <f>IFERROR(VLOOKUP(D22&amp;" - "&amp;P22,[1]Control!$D:$E,2,0),"")</f>
@@ -2571,7 +2296,7 @@
       <c r="M22" s="4"/>
       <c r="N22" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>x</v>
+        <v>ü</v>
       </c>
       <c r="O22" s="4">
         <f t="shared" si="9"/>
@@ -2579,7 +2304,7 @@
       </c>
       <c r="P22" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>Estimado NOMBRE CONTRIBUYENTE, hemos generado su VEP de AUTONOMO</v>
+        <v xml:space="preserve">Estimado , hemos generado su VEP de </v>
       </c>
       <c r="Q22" s="4">
         <f t="shared" si="11"/>
@@ -2596,31 +2321,14 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="str">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="B23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23">
-        <v>20000000000</v>
-      </c>
-      <c r="D23" t="str">
-        <f t="shared" si="15"/>
-        <v>20-00000000-0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
       <c r="K23" s="2"/>
       <c r="L23" s="5" t="str">
         <f>IFERROR(VLOOKUP(D23&amp;" - "&amp;P23,[1]Control!$D:$E,2,0),"")</f>
@@ -2629,7 +2337,7 @@
       <c r="M23" s="4"/>
       <c r="N23" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>x</v>
+        <v>ü</v>
       </c>
       <c r="O23" s="4">
         <f t="shared" si="9"/>
@@ -2637,7 +2345,7 @@
       </c>
       <c r="P23" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>Estimado NOMBRE CONTRIBUYENTE, hemos generado su VEP de AUTONOMO</v>
+        <v xml:space="preserve">Estimado , hemos generado su VEP de </v>
       </c>
       <c r="Q23" s="4">
         <f t="shared" si="11"/>
@@ -2645,16 +2353,16 @@
       </c>
       <c r="R23" s="4">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23" s="4">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S23"/>
-  <sortState ref="A2:R69">
+  <autoFilter ref="A1:S23" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R69">
     <sortCondition ref="A2:A69"/>
     <sortCondition ref="D2:D69"/>
   </sortState>
@@ -2663,19 +2371,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Hoja1!$A$2:$A$11</xm:f>
           </x14:formula1>
           <xm:sqref>F2:F23</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Hoja1!$B$2:$B$18</xm:f>
           </x14:formula1>
           <xm:sqref>G2:G23</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Hoja1!$C$2:$C$23</xm:f>
           </x14:formula1>
@@ -2688,7 +2396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2716,7 +2424,7 @@
       <c r="A2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" t="s">
         <v>24</v>
       </c>
       <c r="C2">
@@ -2727,7 +2435,7 @@
       <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" t="s">
         <v>25</v>
       </c>
       <c r="C3">
@@ -2738,7 +2446,7 @@
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" t="s">
         <v>26</v>
       </c>
       <c r="C4">
@@ -2749,7 +2457,7 @@
       <c r="A5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" t="s">
         <v>16</v>
       </c>
       <c r="C5">
@@ -2760,7 +2468,7 @@
       <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" t="s">
         <v>23</v>
       </c>
       <c r="C6">
@@ -2771,7 +2479,7 @@
       <c r="A7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" t="s">
         <v>27</v>
       </c>
       <c r="C7">
@@ -2779,7 +2487,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
+      <c r="B8" t="s">
         <v>18</v>
       </c>
       <c r="C8">
@@ -2787,7 +2495,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+      <c r="B9" t="s">
         <v>30</v>
       </c>
       <c r="C9">
@@ -2835,7 +2543,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:B9">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B9">
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
